--- a/aggregated_output/MYRTLE_aggregated.xlsx
+++ b/aggregated_output/MYRTLE_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style means she would consider gathering detailed information about the conference presentations as an essential step in her decision-making process.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, Abi's comprehensive information processing style means she would consider gathering detailed information about the conference presentations as a necessary step toward making her decision.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
 Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style means she would consider gathering detailed information about the conference presentations as a necessary step toward making her decision.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, Abi's comprehensive information processing style means she would consider gathering detailed information about the conference presentations as an essential step in her decision-making process.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to know that she should scroll down to find more details. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
+Why: The page is well-structured and provides clear headings and sections, making it easy for Abi to understand that she needs to scroll down to find more information about the conference. The presence of a schedule overview and keynotes section indicates that more detailed information is available further down the page. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather all relevant details. Additionally, the clear layout and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require any unfamiliar computing tasks, so it aligns with her learning style of following a process.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as she tends to gather comprehensive information before making decisions. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more information about the conference presentations. This action does not require high technical skills, so Abi's low computer self-efficacy will not be a barrier here.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as she tends to gather comprehensive information. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more information about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about POPL 2019 is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is visible as she scrolls down. This action does not require high technical skills, so Abi's low computer self-efficacy will not hinder her from performing this action.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. The page primarily shows keynotes and some events, but Abi may need more detailed information about the specific papers and sessions being presented. Given Abi's comprehensive information processing style, she would likely feel that she has not yet gathered all the necessary information to make an informed decision. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress.</t>
+Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page does not provide a complete list of presentations or detailed descriptions, which might leave Abi feeling uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page provides some keynotes and a schedule overview, but it lacks detailed information about all the sessions and presentations. This might leave Abi uncertain if she has all the necessary information to make an informed decision. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not give a comprehensive list of all presentations. Abi's information processing style is comprehensive, and she would need detailed information about all the presentations to make an informed decision. The page does not provide all the necessary details in one place, which might leave Abi uncertain about whether she has all the information she needs. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's comprehensive information processing style means she needs detailed information to make an informed decision. The page does not provide a complete list of presentations or detailed descriptions, which may leave Abi uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style is comprehensive, and she would need detailed information about the presentations to make an informed decision. The page does not provide all the necessary information in a clear and detailed manner, which might leave Abi uncertain about whether she has all the information she needs. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not give comprehensive details about all the presentations. Abi's comprehensive information processing style means she needs detailed information to make an informed decision. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi uncertain if she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
+Why: While scrolling down will reveal some information about the conference, the page does not provide a comprehensive list of all presentations. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page primarily shows keynote speakers and a schedule overview, but it lacks detailed information about all the presentations. This might leave Abi uncertain if she has all the necessary information to make an informed decision, affecting her confidence in making progress toward her goal.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. The page lists keynotes and some events, but it lacks detailed information about the full schedule and specific presentations. Abi, with her comprehensive information processing style, would need more detailed information to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information.</t>
+Why: While scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, the page does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with relevant information about the conference prominently displayed. Abi can easily see that there is more content below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling is a basic and familiar action that does not require high computer self-efficacy, making it easy for Abi to take this step.</t>
+Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information about the conference. The presence of a schedule overview and keynotes section indicates that more detailed information is available further down the page. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather all relevant details. Additionally, the clear layout and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page indicates that more detailed information can be found by scrolling down. This aligns with Abi's comprehensive information processing style, as she would naturally scroll down to gather more information. Additionally, this action does not require any unfamiliar computing tasks, making it straightforward for Abi to take this step.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and provides clear visual cues that there is more information available below the fold. Abi, with her comprehensive information processing style, will likely recognize the need to scroll down to gather more details. Additionally, scrolling is a simple and familiar action that does not require high technical skills, so Abi's low computer self-efficacy will not hinder her from taking this action. The presence of keynotes and a schedule overview at the top of the page also indicates that more detailed information about the conference can be found by scrolling down.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and provides a logical flow of information. Abi can see that there are keynotes and a schedule overview listed, which indicates that more information is available if she scrolls down. This aligns with her information processing style, as she is likely to scroll down to gather more details. Additionally, scrolling is a basic action that does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
+Why: The page layout is clear and straightforward, with a visible section labeled "POPL 2019" that includes relevant information about the conference. Abi will likely understand that scrolling down will reveal more details about the conference, which aligns with her comprehensive information processing style. Additionally, scrolling is a basic action that does not require high computer self-efficacy, making it easy for Abi to perform this action.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page suggests that more detailed information can be found by scrolling down. This aligns with Abi's information processing style, as she would naturally scroll to gather more information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: The page layout is clear and straightforward, with the main content about POPL 2019 prominently displayed. Abi can easily see that there is more information below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling down is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page indicates that more detailed information can be found by scrolling down. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather more information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: The page layout is clear and straightforward, with visible sections and headings that indicate more information is available below. Scrolling down is a simple and intuitive action that does not require high technical skills, making it easy for Abi to perform. Additionally, the presence of relevant information at the top of the page suggests that more detailed information can be found by scrolling, aligning with Abi's comprehensive information processing style. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about keynotes and a few events, but this does not provide a comprehensive overview of all the presentations at the conference. Given Abi's comprehensive information processing style, she would likely feel that she has not yet gathered all the necessary information to make an informed decision. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. Therefore, she may not feel that she has made sufficient progress toward her goal.</t>
+Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page does not provide a complete list of presentations or detailed descriptions, which might leave Abi feeling uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete. Therefore, she may not feel she is making sufficient progress toward her goal.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide a comprehensive list of all presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page does not provide all the necessary details about the conference presentations, which might leave Abi uncertain if she has all the information she needs. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately, leading to frustration and a sense of not making progress toward her goal.</t>
+Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide a comprehensive list of all presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to make an informed decision. The page does not provide all the necessary details in one place, which might leave Abi uncertain about whether she has all the information she needs. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately. Therefore, she may not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to make an informed decision. The page does not provide a full list of presentations or detailed descriptions, which may leave Abi uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
+Why: After scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, this information is not comprehensive enough for her to fully understand what is being presented at the conference. Abi's information processing style is comprehensive, and she would need detailed information about all the presentations to make an informed decision. The page does not provide all the necessary details, which might leave Abi uncertain about whether she has all the information she needs. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident that she is making progress toward her goal. The page does not clearly indicate where to find the full list of presentations, which might make Abi uncertain if she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
+Why: After scrolling down, Abi will see some information about the conference, such as keynote speakers and a schedule overview. However, this information is not comprehensive enough for her to fully understand what is being presented at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page does not provide a full list of presentations or detailed descriptions, which might leave her uncertain if she has all the necessary information to make an informed decision. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide a comprehensive list of all presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, as the page does not clearly indicate where to find the full list of presentations.</t>
+Why: After scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, this information is not comprehensive enough to give her a full understanding of what is being presented at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -623,72 +623,72 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference presentations. This aligns with her comprehensive information processing style, as she would naturally look for detailed information about the program. Additionally, clicking a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this step.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she would look for specific links to gather detailed information. Additionally, the clear labeling and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, clicking on a clearly labeled link is a straightforward action that does not require any unfamiliar computing tasks, making it suitable for Abi's learning style.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify as a relevant link to click for more information about the conference presentations. This aligns with Abi's comprehensive information processing style, as she would recognize the need to click on this link to gather detailed information. Additionally, clicking on a clearly labeled link is a straightforward action that does not require high technical skills, so Abi's low computer self-efficacy will not hinder her from taking this action.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she is likely to seek out detailed information. Additionally, the action of clicking a clearly labeled link is straightforward and does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, as she is likely to click on the link to gather more information. Additionally, clicking on a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this action.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she would naturally look for such links to gather more information. Additionally, the action of clicking a clearly labeled link does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference program. This aligns with her comprehensive information processing style, as she would naturally look for detailed information. Additionally, clicking a clearly labeled link is a straightforward action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, the clear labeling and placement of the link make it straightforward for Abi to understand what to do, despite her low computer self-efficacy.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she is likely to look for specific links that will give her the detailed information she needs. Additionally, the clear labeling and placement of the link help mitigate any potential issues related to her low computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous list can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to quickly locate the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the relevant details. The lack of clear organization or filtering options could hinder her ability to efficiently gather the necessary information, making her feel that she has not made sufficient progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed schedule and list of presentations will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress toward her goal by landing on a page with detailed information about the conference program, the sheer volume of information presented in a long, continuous list can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to find specific details efficiently. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a dense page, leading to frustration and uncertainty about whether she has gathered all the necessary information.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of all the presentations at the conference. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The page is well-organized and presents the information in a clear manner, which will help Abi feel confident that she is making progress toward her goal. Additionally, the detailed list will provide all the information she needs, addressing her low computer self-efficacy by reducing the need for further navigation or exploration.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress toward her goal by landing on a page with detailed information about the conference program, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to do so efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially leading to frustration or confusion. Therefore, she may not feel she has all the information she needs in an easily digestible format.</t>
+Why: While Abi will know she is making progress toward her goal by clicking the "Program of POPL 2019" link, the resulting page is overwhelming with a large amount of detailed information presented in a dense format. This could be difficult for Abi to process comprehensively, given her information processing style. Additionally, the sheer volume of information might affect her computer self-efficacy, making her feel uncertain about whether she has found all the necessary details. The page does not provide an easily navigable or summarized view of the presentations, which could hinder Abi's ability to efficiently gather the information she needs.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous format can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident she has made progress toward her goal. However, the lack of clear organization or categorization might make it difficult for her to find specific information quickly. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially hindering her confidence in making progress.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary information to make an informed decision about attending the conference. The detailed schedule and list of presentations will help her feel confident that she is making progress toward her goal of understanding what is being presented at the conference. This also aligns with her motivation to accomplish her tasks effectively.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous list can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident she is making progress toward her goal. However, the lack of organization or filtering options can make it difficult for her to find specific information efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially causing her to doubt if she has found all the necessary information.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed schedule of the conference, including the titles and times of presentations. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed schedule will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -697,72 +697,72 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests that there is more information below the fold, which would prompt her to scroll down. This action does not require high computer self-efficacy, as it is a basic and familiar task. The page is good enough for Abi to take this action because it is clear that there is additional content to be viewed by scrolling.</t>
+Why: The page is structured in a way that clearly lists the conference presentations in a detailed manner. Abi, with her comprehensive information processing style, will recognize that scrolling down will reveal more information about the presentations. The familiar layout of a list and the clear headings will support her computer self-efficacy, making her feel confident in taking this action. Therefore, she will know what to do at this step and the page is good enough for her to take this action.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page layout is straightforward, and the information is presented in a list format. Abi's comprehensive information processing style means she is likely to scroll down to gather all the details. The action of scrolling down is simple and does not require any unfamiliar computing tasks, making it suitable for Abi's learning style. The page is good enough for Abi to take this action as it aligns with her method of processing information comprehensively.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is structured in a way that clearly indicates there is more information available below the fold, which aligns with Abi's comprehensive information processing style. She will understand that scrolling down will reveal additional details about the conference presentations. Scrolling is a simple and familiar action that does not require high technical skills, so Abi's low computer self-efficacy will not be a barrier here. The page layout and the presence of a scrollbar make it evident that more content is available by scrolling.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
+Why: Scrolling down is a straightforward action that Abi is familiar with, and it aligns with her information processing style of gathering comprehensive information. The page layout, although dense, clearly indicates that more information is available by scrolling. This action does not require high computer self-efficacy, making it easy for Abi to perform. She will understand that scrolling down will reveal more details about the conference program.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: The page layout is clear and straightforward, with a detailed list of presentations displayed. Abi can easily see that there is more information below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling down is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is structured in a way that presents a long list of information, which suggests that scrolling down will reveal more details. Abi's comprehensive information processing style will lead her to scroll to gather all the necessary information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The page layout makes it clear that more information is available by scrolling down.</t>
+Why: The page layout is clear and straightforward, with a detailed schedule of the conference presentations. Scrolling down is a simple and intuitive action that does not require high technical skills, making it easy for Abi to perform. Additionally, the presence of a detailed schedule aligns with Abi's comprehensive information processing style, as she will be able to see all the information she needs by scrolling. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will encounter a very long and detailed list of presentations. While this page contains a lot of information, the sheer volume and lack of clear organization or filtering options can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to quickly locate the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the relevant details. The overwhelming amount of information without clear guidance can hinder her ability to efficiently gather the necessary information, making her feel that she has not made sufficient progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed schedule and list of presentations will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will provide Abi with a lot of information about the conference program, the format is overwhelming due to the sheer volume of details presented in a long, continuous list. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the dense format may make it difficult for her to efficiently find and understand specific details. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a dense page, leading to frustration and uncertainty about whether she has gathered all the necessary information. This could leave her feeling unsure if she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, Abi will see a detailed and comprehensive list of all the presentations at the conference. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The page is well-organized and presents the information in a clear manner, which will help Abi feel confident that she is making progress toward her goal. Additionally, the detailed list will provide all the information she needs, addressing her low computer self-efficacy by reducing the need for further navigation or exploration.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will provide Abi with a comprehensive list of presentations, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to do so efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially leading to frustration or confusion. Therefore, she may not feel she has all the information she needs in an easily digestible format.</t>
+Why: After scrolling down, Abi will encounter a very dense and extensive list of presentations. While this page does provide detailed information, the sheer volume and format can be overwhelming. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the dense layout may make it difficult for her to efficiently process the information. Additionally, the overwhelming amount of data might affect her computer self-efficacy, making her feel uncertain about whether she has found all the necessary details. This could hinder her confidence in making progress toward her goal and in getting all the information she needs.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will encounter a very long and dense list of presentations. While this page contains a lot of information, it is not organized in a way that is easy to digest quickly. Abi's comprehensive information processing style means she needs to process all this information to feel confident she has made progress toward her goal. The overwhelming amount of information and lack of clear organization might make it difficult for her to find specific details efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially hindering her confidence in making progress.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see a detailed and comprehensive list of presentations at the conference. This aligns with her comprehensive information processing style, as she will have access to all the necessary information to make an informed decision about attending the conference. The detailed schedule and list of presentations will help her feel confident that she is making progress toward her goal of understanding what is being presented at the conference. This also aligns with her motivation to accomplish her tasks effectively.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will reveal more information, the page presents a very long and dense list of presentations without any clear organization or filtering options. This can be overwhelming for Abi, who prefers a comprehensive information processing style. She may find it difficult to determine if she has found all the necessary information due to the sheer volume and lack of structure. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, causing her to doubt if she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see a detailed schedule of the conference presentations, including titles and times. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed schedule will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -770,36 +770,36 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a long list of papers, but it is not immediately clear which ones are distinguished papers or how to identify them. Given Abi's comprehensive information processing style, she would need clear indicators or labels to efficiently find the distinguished papers. Additionally, her low computer self-efficacy might make her hesitant to click on links without being certain of their relevance. The lack of clear guidance or organization on the page can make it difficult for Abi to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is densely packed with information, and while it lists many papers, it does not clearly indicate which ones are distinguished papers or provide an obvious link to click on for more details. Abi, with her low computer self-efficacy, might feel overwhelmed by the sheer volume of information and unsure about where to click to find the distinguished papers. Additionally, her process-oriented learning style means she prefers clear instructions and step-by-step guidance, which this page does not provide. Therefore, she may not know what to do at this step or feel confident in taking the action.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is very dense with information, and it is not immediately clear which links or sections are clickable or what specific actions Abi should take to find the distinguished papers. Abi's low computer self-efficacy might make her hesitant to click on links without clear indications of what they will lead to. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided on this page. The lack of clear guidance and the overwhelming amount of information may make it difficult for Abi to confidently know what to do next.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi which links are for the distinguished papers. Abi's low computer self-efficacy might make her hesitant to click on links without being certain of their purpose. Additionally, Abi prefers process-oriented learning and may not feel confident in clicking on links without clear instructions or labels indicating that they lead to the distinguished papers. The page does not provide explicit guidance on what each link represents, which could make Abi uncertain about taking this action.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is very dense with information, and it is not immediately clear which papers are distinguished or how to identify them. Abi's comprehensive information processing style means she needs clear and organized information to make an informed decision. The lack of clear indicators or labels for distinguished papers may make it difficult for her to know what to do next. Additionally, her low computer self-efficacy might make her hesitant to click on links without being sure of their purpose, leading to uncertainty and potential frustration.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. The distinguished papers are not clearly highlighted or separated from the rest of the content, making it difficult for Abi to identify them easily. Given her comprehensive information processing style, Abi might struggle to find the specific information she needs without clear guidance. Additionally, her lower computer self-efficacy means she might feel uncertain about clicking on links without clear indications of what they will lead to. The page does not provide a clear, step-by-step process for finding the distinguished papers, which does not align with Abi's process-oriented learning style.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. It is not immediately clear which papers are distinguished, and there is no specific indication or highlight for distinguished papers. Abi's comprehensive information processing style means she needs clear and organized information to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to click on links without clear indications of their purpose, making it difficult for her to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is densely packed with information, and it is not immediately clear which papers are distinguished or how to identify them. Abi might struggle to find the specific papers she is looking for due to the overwhelming amount of text and lack of clear visual cues. Her low computer self-efficacy means she might feel uncertain about navigating this page effectively. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or visual indicators to guide her actions, which are not present on this page.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page presents a long list of papers without clear indications of which ones are distinguished. Abi, with her low computer self-efficacy, might feel uncertain about which paper to click on, especially if there are no clear labels or instructions. Additionally, her process-oriented learning style means she prefers clear, step-by-step instructions, which are not provided on this page. The lack of clear guidance makes it difficult for her to know what to do at this step.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi which links are clickable or what each link will lead to. Given Abi's low computer self-efficacy, she might feel uncertain or overwhelmed by the number of options and the lack of clear instructions. Additionally, Abi prefers process-oriented learning and may not feel confident clicking on links without clear guidance on what they will do. Therefore, she may not know what to do at this step, and the page is not good enough for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -807,36 +807,36 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to understand, which supports her low computer self-efficacy by providing a clear indication that she has done the right thing and is making progress toward her goal. The information presented is sufficient for her to make an informed decision about attending the conference.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary of the content. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed information provided in the pop-up will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to make an informed decision. The clear presentation of information in the pop-up format makes it easy for Abi to understand that she is making progress toward her goal and has found the specific details she was looking for. This action also aligns with her learning style, as it provides structured and clear information without requiring unfamiliar computing tasks.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to understand what is being presented. The clear and organized presentation of information in the pop-up will help Abi feel confident that she is making progress toward her goal. Additionally, the detailed information provided in the pop-up will address her low computer self-efficacy by reducing the need for further navigation or exploration.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to make an informed decision. The clear and organized presentation of information in the pop-up will help her feel confident that she is making progress toward her goal. Additionally, the straightforward nature of the pop-up interface supports her low computer self-efficacy, making it easy for her to understand and navigate.</t>
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to understand what is being presented. The clear and organized presentation of information in the pop-up will help Abi feel confident that she is making progress toward her goal and has found the necessary details. This positive experience will also support her computer self-efficacy, reinforcing that she did the right thing.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to navigate, which will help Abi feel confident that she is making progress toward her goal and has obtained the information she needs.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, abstract, authors, and their affiliations. This detailed view aligns with her comprehensive information processing style, as it provides all the necessary information she needs to understand what is being presented. Additionally, this detailed information will help her feel confident that she is making progress toward her goal of understanding the conference content, aligning with her motivation to accomplish her tasks effectively.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to navigate, which will help Abi feel confident that she is making progress toward her goal and has found the information she needs, despite her low computer self-efficacy.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as she will have access to the detailed information she needs to make an informed decision about attending the conference. The detailed pop-up will also satisfy her motivation to understand what is being presented at the conference. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -844,36 +844,36 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi might not know how to return to the main page to check the tutorial information. Given her comprehensive information processing style, she would need clear navigation options to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore or click on unfamiliar elements without clear guidance, making it difficult for her to take this action confidently.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial information. Additionally, her process-oriented learning style means she prefers clear instructions and step-by-step guidance, which this page does not provide. The "Close" button on the pop-up might not be immediately obvious as the way to return to the previous page, and there is no clear navigation menu or breadcrumb trail to guide her back. Therefore, she may not know what to do at this step or feel confident in taking the action.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear instructions or a straightforward way to navigate back to the main page to check the tutorial. Abi's low computer self-efficacy might make her hesitant to explore or click on links without clear indications of what they will lead to. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided on this page. The lack of clear guidance and the overwhelming amount of information may make it difficult for Abi to confidently know what to do next.</t>
+Why: The current page does not provide a clear and straightforward way to navigate back to the main page. Abi's low computer self-efficacy might make her hesitant to explore or click on buttons without clear instructions. Additionally, Abi prefers process-oriented learning and may not feel confident in navigating back to the main page without explicit guidance. The "Close" button on the pop-up might not be immediately associated with returning to the main page, and there is no clear "Back to Main Page" link or button visible. This lack of clear navigation options could make Abi uncertain about how to proceed.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page does not provide a clear way to navigate back to the main page. Abi may not know how to return to the main page to check the tutorial information, as there is no obvious "back" button or link. This lack of clear navigation can be confusing, especially given Abi's low computer self-efficacy. Additionally, her comprehensive information processing style means she needs clear and straightforward navigation to feel confident in her actions. The absence of clear instructions or navigation options may leave her uncertain about how to proceed.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide a clear and intuitive way for Abi to navigate back to the main page to check the tutorial. There is no visible "back" button or link that indicates how to return to the main page. Given Abi's comprehensive information processing style, she might feel uncertain about how to proceed without clear guidance. Additionally, her lower computer self-efficacy means she might be hesitant to take actions without clear instructions, and the lack of a step-by-step process does not align with her process-oriented learning style. This could make it difficult for Abi to confidently navigate back to the main page.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page does not provide a clear and intuitive way to navigate back to the main page. There is no visible "back" button or link that indicates how to return to the main page to check the tutorial. Abi's comprehensive information processing style means she needs clear navigation cues to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore or click on elements without clear indications of their purpose, making it difficult for her to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide a clear and straightforward way to navigate back to the main page. Abi might not know how to return to the main page to check the tutorial information, especially given her low computer self-efficacy. The page lacks clear navigation instructions or a visible "back to main page" button, which would be helpful for someone with a process-oriented learning style. This could make Abi feel uncertain about how to proceed, hindering her progress toward her goal.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial. Additionally, her process-oriented learning style means she prefers clear, step-by-step instructions, which are not provided on this page. The lack of clear navigation options makes it difficult for her to know what to do at this step.</t>
+Why: The current page does not provide a clear and intuitive way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial. Additionally, there are no clear instructions or visible navigation options that align with her process-oriented learning style. This lack of guidance may make her hesitant to take the action, as she might fear getting lost or not being able to find her way back. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -882,35 +882,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After returning to the main page, Abi will see a general overview of the conference, including keynotes and some events. However, the page does not provide detailed information about the tutorials, which is what Abi is specifically looking for. Given her comprehensive information processing style, she would need more specific details to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. The main page does not clearly indicate where to find detailed information about the tutorials, making it difficult for Abi to feel that she has done the right thing and is making progress.</t>
+Why: After returning to the main page, Abi will see the same initial information about the conference, including the schedule overview and keynotes. However, the page does not provide a clear or detailed section specifically for tutorials, which Abi is looking for. Given her comprehensive information processing style, she may feel that she has not yet gathered all the necessary information about the tutorials. Additionally, her low computer self-efficacy might make her hesitant to explore further or click on additional links without clear guidance. Therefore, she may not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: If Abi goes back to the main page, she will see the "Program of POPL 2019" link and other relevant links prominently displayed. This aligns with her comprehensive information processing style, as she can easily navigate to the tutorial section from the main page. The page layout is clear and provides structured information, which suits Abi's preference for process-oriented learning. By returning to the main page, Abi will know she is making progress toward her goal and can find the information she needs about the tutorials.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal of exploring the program and checking the tutorials. The main page is well-organized and provides clear links to different sections, including the "Program of POPL 2019" and "List of Papers Accepted for POPL 2019." This will help Abi feel confident that she is on the right track. Additionally, the clear layout and labeled links will provide her with the necessary information to continue her exploration, addressing her low computer self-efficacy by reducing the need for further navigation or exploration.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After returning to the main page, Abi will see the same initial information about the conference, including keynotes and a schedule overview. However, the page does not provide a clear and direct way to find specific information about tutorials. Abi's comprehensive information processing style means she needs detailed and organized information to make an informed decision. The lack of clear navigation or direct links to tutorial information may leave her uncertain about whether she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and accessible.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: If Abi navigates back to the main page, she will recognize that she is making progress toward her goal because the main page provides a clear overview of the conference, including links to various sections such as the program and tutorials. The page is well-organized, and the "TutorialFest" section is prominently displayed, making it easy for Abi to find the information she needs. This aligns with her comprehensive information processing style, as she can gather detailed information about the tutorials. Additionally, the clear layout and navigation options will support her computer self-efficacy, making her feel confident that she is on the right track.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal. The main page is well-organized and provides clear links to various sections, including tutorials. This aligns with her comprehensive information processing style, as she can easily find and access the information she needs. Additionally, the clear layout and labeled links will help her feel confident in her actions, despite her low computer self-efficacy.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After navigating back to the main page, Abi will see the general information about the conference again. However, the page does not provide a clear and direct path to the specific tutorial information she is looking for. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her progress. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance. The main page does not prominently feature tutorials or provide an obvious link to them, which could leave Abi uncertain about whether she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal because the main page provides clear links and information about the conference, including tutorials. The main page is well-organized and provides a logical flow of information, which aligns with her comprehensive information processing style. Additionally, the clear layout and labeling of links will help her feel confident that she is on the right track, despite her low computer self-efficacy.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After navigating back to the main page, Abi will see the same initial information she encountered before. While the page provides some details about the conference, it does not offer comprehensive information about the tutorials. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -919,35 +919,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "TutorialFest" links are clearly labeled and prominently displayed on the main page, making it easy for Abi to identify them as relevant links to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for detailed information about the tutorials. Additionally, clicking a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this step. The page is good enough for Abi to take this action because it provides clear and intuitive navigation options.</t>
+Why: The page clearly lists "TutorialFest" as one of the events, and it is prominently displayed in the schedule overview. This makes it easy for Abi to identify and understand that clicking on one of the "TutorialFest" links will provide more detailed information about the tutorials. The clear labeling and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action. Additionally, her comprehensive information processing style means she would naturally look for specific links to gather detailed information, and the page is structured in a way that supports this behavior.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "TutorialFest" link is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify it as a relevant link to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, clicking on a clearly labeled link is a straightforward action that does not require any unfamiliar computing tasks, making it suitable for Abi's learning style. The page is good enough for Abi to take this action as it provides clear guidance on where to find the information she needs.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide clear instructions or labels indicating that clicking on the "TutorialFest" link will lead to detailed information about the tutorials. Abi's low computer self-efficacy might make her hesitant to click on links without being certain of their purpose. Additionally, Abi prefers process-oriented learning and may not feel confident in clicking on links without explicit guidance. The "TutorialFest" link is not clearly distinguished from other links, and there is no immediate indication of what information will be found by clicking it. This lack of clear navigation options and instructions could make Abi uncertain about how to proceed.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "TutorialFest" links are clearly labeled and prominently placed on the page, making it easy for Abi to identify and understand that clicking on one of these links will provide more detailed information about the tutorials. This aligns with her comprehensive information processing style, as she is likely to seek out detailed information. Additionally, the action of clicking a clearly labeled link is straightforward and does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
+Why: The "TutorialFest" section is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify and click on it. This aligns with her comprehensive information processing style, as she can see that this section will provide detailed information about the tutorials. Additionally, clicking on a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this action. The page is well-organized, and the clear labeling will help Abi feel confident that she is taking the right step to find the information she needs.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized and clearly labels the "TutorialFest" section, making it easy for Abi to identify and understand that clicking on one of the links will provide more detailed information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for such links to gather more information. Additionally, the action of clicking a clearly labeled link does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: The "TutorialFest" link is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify it as a relevant link to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for detailed information. Additionally, clicking a clearly labeled link is a straightforward action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The page is good enough for Abi to take this action confidently.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized and clearly labels the "TutorialFest" section, making it easy for Abi to identify the relevant links. This aligns with her comprehensive information processing style, as she can see that clicking on a tutorial link will provide more detailed information. Additionally, the clear labeling and straightforward layout will help Abi feel confident in taking this action, despite her low computer self-efficacy. The page provides enough guidance for her to know what to do at this step.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide clear instructions or indications that the "TutorialFest" links are clickable or what specific information they will lead to. Given Abi's low computer self-efficacy, she might feel uncertain about clicking on these links without clear guidance. Additionally, Abi prefers process-oriented learning and may not feel confident clicking on links without knowing exactly what they will do. This lack of clear instructions and guidance may make her hesitant to take the action, as she might fear getting lost or not finding the information she needs. Therefore, the page is not good enough for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -956,35 +956,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page lacks detailed information about the specific tutorials being offered, their schedules, or their content. Given Abi's comprehensive information processing style, she would need more specific details to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. The page does not provide all the information she needs to make an informed decision about attending the conference.</t>
+Why: After clicking on the "TutorialFest" link, Abi lands on a page that provides some information about the event, but it is not immediately clear or comprehensive. The page includes important dates and the evaluation committee, but it lacks detailed information about the specific tutorials being offered. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident in her decision. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete. Therefore, she may not feel that she is making sufficient progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. Instead, it shows some important dates and the evaluation committee, which might not be what Abi is looking for. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her decision. The lack of immediate, relevant information might leave her uncertain if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to explore further if she doesn't find the necessary information right away, leading to frustration and a sense of not making progress.</t>
+Why: After clicking on the "TutorialFest" link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click further to find the specific information she needs. This additional navigation may not align with Abi's comprehensive information processing style, as she prefers to have all necessary details readily available. Additionally, Abi's low computer self-efficacy might make her hesitant to click on multiple links without clear guidance, leaving her uncertain about whether she is making progress toward her goal. The page does not provide immediate, detailed information about the tutorials, which could make Abi feel that she has not yet achieved her subgoal.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click on these links to find the specific information she needs. This additional navigation may be confusing and time-consuming for Abi, given her comprehensive information processing style and low computer self-efficacy. She may not feel confident that she is making progress toward her goal or that she has all the information she needs in an easily accessible format.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page is sparse and primarily contains links to other sections (About, Program, List of Tutorials, Call for Tutorials) and some important dates. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. The lack of immediate, detailed information on this page might make her feel uncertain about whether she is on the right track. Additionally, her lower computer self-efficacy might make her hesitant to click on additional links without clear indications of what they will lead to, potentially hindering her progress.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click on these links to find the specific information she needs. This additional navigation might be confusing and time-consuming for Abi, who prefers comprehensive information to be readily available. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance, making it difficult for her to feel confident that she is making progress toward her goal.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but it is not immediately clear which link will provide the specific information she needs. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her progress. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance. The page does not provide immediate, detailed information about the tutorials, which could leave Abi uncertain about whether she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but it is not immediately clear which link will provide the comprehensive information she needs. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. Additionally, her low computer self-efficacy might make her feel uncertain about which link to click next, causing her to doubt if she is making progress toward her goal.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page includes important dates and the names of the evaluation committee members, but it lacks detailed information about the specific tutorials being offered. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision-making. Additionally, her low computer self-efficacy might make her uncertain if she has found all the necessary information, leading to frustration or confusion. Therefore, she may not feel she has made sufficient progress toward her goal and may not get all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/MYRTLE_aggregated.xlsx
+++ b/aggregated_output/MYRTLE_aggregated.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to decide on attending the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This would help her gather the necessary details to make an informed decision.</t>
+  </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
@@ -22,368 +37,348 @@
   </si>
   <si>
     <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with clear headings and sections, making it intuitive for Abi to scroll down to find more information about POPL 2019. Her comprehensive information processing style supports her ability to navigate the page effectively to gather the necessary details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of deciding whether to attend.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout is clear, with visible sections and headings that suggest scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, making it likely she will know to scroll down to find additional details about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details needed to decide about attending. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is long and detailed, which suggests that scrolling will reveal more information. Abi's comprehensive information processing style will guide her to scroll down to explore the full content of the program, helping her gather the necessary details about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly assess if she has all the necessary details. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear instructions or labels indicating where the "distinguished paper" link is, Abi might struggle to know what to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists the distinguished papers, which directly aligns with Abi's goal of finding out what is being presented. The structured format and labels help her confirm she is making progress toward her goal, providing the specific information she needs about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for guided learning mean she might struggle to find the correct way to return to the main page to check the tutorial without explicit instructions or a visible navigation option.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The structured layout and visible sections help her confirm she is making progress toward her goal by providing the additional information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visible on the page, making it intuitive for Abi to click on one to explore further. This aligns with her motivation to find out more about the conference offerings and her comprehensive information processing style, guiding her to take this action confidently.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about whether she has all the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details are available below, which would motivate her to scroll down to gather the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, guiding her to click the link for more details.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume and complexity of the data might overwhelm her. This could make it difficult for her to process all the information effectively, leaving her uncertain about her progress toward the goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, as she is likely to scroll down to gather all necessary details about the conference program.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling provides access to more information, the extensive and detailed content may overwhelm Abi. This could make it difficult for her to determine if she has all the necessary information, leaving her uncertain about her progress toward the goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low confidence in unfamiliar tasks and preference for clear instructions make this step challenging.</t>
+  </si>
+  <si>
+    <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style.</t>
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal of finding out what is being presented. The information is organized and labeled, helping her feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide clear navigation or instructions on how to return to the main page. Abi might struggle with this task due to her low confidence in unfamiliar tasks and preference for clear, guided instructions.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
+Why: Returning to the main page allows Abi to access additional information about the conference, such as tutorials. This aligns with her motivation to gather comprehensive details about the event, helping her feel she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the value of attending.</t>
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her motivation to gather comprehensive information about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the details are insufficient.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down to gather more information aligns with Abi's comprehensive information processing style. The page provides a clear overview of the conference schedule, keynotes, and tutorials, which would help her understand what is being presented. This action is straightforward and does not require technical expertise, making it suitable for Abi.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This information is clearly laid out, allowing her to feel confident that she is making progress toward her goal. The page provides a comprehensive view, aligning with her information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. The presence of a schedule overview and other relevant sections indicates that scrolling will provide additional details about the conference, making it a logical action for her to take.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview but lacks specific details about each session or presentation. Abi might not feel she has made complete progress toward her goal due to her need for detailed information and her low confidence in navigating unfamiliar tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. The page is straightforward, making it easy for her to know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides a detailed list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting this extensive list challenging, leaving her uncertain about her progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is long and detailed, indicating that more information is available below. Abi will likely understand that scrolling is necessary to view the full program and gather the details she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling down provides more information, the extensive and detailed list may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify relevant sessions, and her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information. This could leave her unsure about her progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is densely packed with information, and it may not be immediately clear to Abi which link corresponds to the "distinguished paper." Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions. The page does not provide enough context to make this action intuitive for her.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style. The page provides specific and relevant information, helping her feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy might make her hesitant to explore without explicit navigation options, and her preference for process-oriented learning means she might struggle without clear instructions. The page lacks guidance for this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly displayed. This aligns with her motivation to explore the program and her comprehensive information processing style. The main page provides a clear overview, helping her feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled under "TutorialFest," making it easy for Abi to understand that clicking them will provide more information about the tutorials. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific information about the tutorials themselves. Her low computer self-efficacy might make her uncertain about where to find additional details, leaving her unsure if she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more information below, which is a common web design cue that Abi is likely familiar with. This action is intuitive and doesn't require technical expertise.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: After scrolling, Abi will see the schedule overview and keynotes, which are relevant to her goal of finding out what is being presented. This confirms she is making progress toward her goal. The information is clearly laid out, helping her feel confident she is on the right track.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout suggests there is more information below, which is a common web design cue. Abi's comprehensive information processing style means she is likely to scroll to gather more details. The page is structured in a way that encourages scrolling to find additional content.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling reveals some information, it may not provide all the details Abi needs to fully understand what is being presented at the conference. The page has a schedule overview and keynotes, but without more detailed descriptions or links to specific sessions, Abi might not feel she has all the necessary information. Her low computer self-efficacy might make her uncertain if she has found everything she needs.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers, which aligns with her comprehensive information processing style, helping her gather the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details about the conference are available below, which would motivate her to scroll down to gather the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly laid out and accessible, aligning with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more details about the conference, as this is a common action to find additional content on a webpage.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are directly related to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly presented and relevant, aligning with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to achieve her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume of information presented at once may be overwhelming. This could hinder her ability to process the information effectively, given her comprehensive information processing style. Additionally, her low computer self-efficacy might make it difficult for her to navigate and extract the specific details she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to know where to focus, and her low computer self-efficacy could hinder her ability to navigate effectively through the extensive content.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down is a logical action, the overwhelming amount of information on the page may make it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy could hinder her ability to efficiently extract the specific details she needs from the extensive content.</t>
+Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented. This aligns with her motivation to gather information and her comprehensive information processing style, making it likely she will know to click this link to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume of text and lack of clear organization might overwhelm her. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling is a natural action for Abi to take when faced with a long page of information. Her comprehensive information processing style means she is likely to scroll to gather more details. The page layout suggests there is more content below, which is a common web design cue.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling reveals more information, the page is densely packed with text and lacks clear organization, which might overwhelm Abi. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident clicking without explicit instructions or clear indicators.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with information about distinguished papers, the error message and technical details might confuse her. Her low computer self-efficacy could make her uncertain about whether she is on the right track, and the disruption may prevent her from feeling confident that she is making progress toward her goal.</t>
+Why: The page is densely packed with text, and it may not be immediately clear which link corresponds to the "distinguished paper." Abi's low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal. The information is organized in a way that makes it easy for her to see the relevant details, confirming she is making progress toward her goal. This aligns with her motivation to gather specific information.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to figure out how to go back without explicit guidance or a visible "back" option.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are relevant to her goal. The clear layout and visible sections on the main page help her feel confident that she is making progress toward finding out what is being presented at the conference.</t>
+Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle without explicit navigation instructions or visible links to return to the main page.</t>
   </si>
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify. Her motivation to find out what is being presented and her comprehensive information processing style will guide her to click on one of the tutorial links to gather more details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi lands on the TutorialFest page, the information provided is minimal and lacks specific details about the tutorials themselves. This may not satisfy her comprehensive information processing style, and she might not feel confident that she has made progress toward her goal of understanding what is being presented at the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides a clear overview of the conference schedule and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore the page further to gather all necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to gather comprehensive information, making it likely she will know to click it.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of detailed information, which might be overwhelming for Abi. While it provides comprehensive details, the sheer volume and complexity could make it difficult for her to process and feel confident she has all the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is long and detailed, indicating that scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the page is densely packed with details, which may overwhelm Abi. She might struggle to process all the information effectively, making it difficult for her to feel confident that she has made progress toward her goal.</t>
+Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to explore the program. The page clearly displays tutorial options, confirming she is making progress. This aligns with her motivation to gather comprehensive information about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi might not feel she has made significant progress toward her goal of understanding what is being presented. Her comprehensive information processing style requires more detailed content, and her low computer self-efficacy might lead to uncertainty about finding the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more detailed information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more information about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style, ensuring she gets the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The link labeled "Program of POPL 2019 and co-located events" clearly indicates that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning, making it clear that clicking the link is the right action to take.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style could make it difficult to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy might make her unsure if she is effectively navigating the page to find what she needs.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to discern what to focus on. Additionally, her low computer self-efficacy could lead to uncertainty about how to effectively navigate and extract the needed information from such a detailed page.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style might lead to confusion, and her low computer self-efficacy could cause uncertainty about whether she has found all the necessary information.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear which link corresponds to the "distinguished paper." Without clear guidance or labeling, Abi might struggle to confidently identify and click the correct link, especially given her low computer self-efficacy and preference for process-oriented learning.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with information about distinguished papers, the error message and technical details might confuse her. This could hinder her confidence in knowing she did the right thing and in making progress toward her goal. The disruption may prevent her from feeling she has all the necessary information.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly lists the distinguished papers with their titles and times, which aligns with Abi's comprehensive information processing style. This clarity helps her know she is making progress toward her goal of understanding what is being presented at the conference.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi might struggle to figure out how to go back, especially given her low computer self-efficacy and preference for clear, guided steps.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her motivation to gather comprehensive information and confirms she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visible on the page. This aligns with Abi's motivation to gather comprehensive information and her information processing style, making it likely she will know to click on them to explore further.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed here.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural action for her to take in order to understand what is being presented at the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, allowing her to feel confident that she is making progress toward her goal of deciding whether to attend.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more details about the conference presentations.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide comprehensive information about the conference presentations. This aligns with her information processing style, allowing her to recognize that she is making progress toward her goal of deciding whether to attend.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it a logical step for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting such a dense page challenging, hindering her progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to efficiently find the specific details she needs. Additionally, her low computer self-efficacy could make navigating such a complex page challenging, leading to uncertainty about what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy may hinder her ability to efficiently find and interpret the necessary details, leaving her uncertain about her progress toward the goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page is densely packed with information, making it difficult for Abi to identify the "distinguished paper" link. Her low computer self-efficacy and need for clear guidance may hinder her ability to confidently take this action. The lack of clear visual cues or instructions on the page adds to the challenge.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with detailed information about distinguished papers, the error message at the top may cause confusion and uncertainty about whether she is making progress. Her low computer self-efficacy might make it difficult for her to interpret the error and feel confident that she is on the right track.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and need for clear guidance may make it difficult for her to know how to go back and check the tutorial, leading to uncertainty about what to do next.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal of understanding what is being presented at the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to find out more about the conference and her comprehensive information processing style, allowing her to confidently take this action.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and evaluation committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about what to do next to find more detailed information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly presents a schedule overview and links to papers and events, which aligns with Abi's comprehensive information processing style. Scrolling down to find more detailed information is a logical step for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. Scrolling down is a natural action to find additional details about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, making it a logical step for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style may struggle with the volume of data, and her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the needed information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. She is likely to understand that more information is available as she scrolls, which is a logical step to gather details about the conference program.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down provides more information, the sheer volume and density of the data may overwhelm Abi. Her comprehensive information processing style might not be sufficient to easily navigate and extract the necessary details, and her low computer self-efficacy could hinder her confidence in making progress.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi may struggle to identify the correct link. Her low computer self-efficacy and preference for process-oriented learning mean she might not feel confident in taking this action without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although the page shows distinguished papers, the error message and technical details might confuse Abi. Her comprehensive information processing style and low computer self-efficacy could make it difficult for her to feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation back to the main page, which may confuse Abi. Her low computer self-efficacy and preference for structured guidance mean she might not feel confident in taking this action without explicit instructions or a clear path.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which helps her make progress toward her goal. The page layout is clear, and she can easily identify the tutorials section, aligning with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her comprehensive information processing style, allowing her to confidently take this action to explore more about the tutorials.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials, given her need for comprehensive information and low confidence in navigating sparse details.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down aligns with Abi's comprehensive information processing style. The page provides clear sections like "Schedule Overview" and "Keynotes," which are likely to help her find relevant information about the conference presentations.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes" sections, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a natural action to view more content on a webpage. The page layout suggests there is more information below, which aligns with Abi's comprehensive information processing style, making it clear that scrolling will reveal additional details about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the "Schedule Overview" and "Keynotes," which provide relevant information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The "Program of POPL 2019" link is clearly labeled and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more content below, which is a common way to access additional information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down is a natural action, the overwhelming amount of detailed information on the page may make it difficult for Abi to know if she is making progress. Her comprehensive information processing style and low computer self-efficacy might hinder her ability to efficiently find and process the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi might struggle to identify the correct link to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident taking this action without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly labels "Distinguished Paper," making it easy for Abi to confirm she clicked the right link. This aligns with her comprehensive information processing style, helping her know she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for clear instructions mean she may not feel confident in taking this action without explicit navigation options.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the "TutorialFest" section, which is clearly visible. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of exploring the program.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The "TutorialFest" section is clearly visible with links to individual tutorials. This aligns with Abi's motivation to explore the program and her comprehensive information processing style, making it clear what action to take.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, due to her need for comprehensive information and low confidence in navigating unclear pages.</t>
+Why: The page does not provide clear navigation options or instructions for returning to the main page to check tutorials. Abi's low computer self-efficacy and preference for process-oriented learning might make her unsure about how to proceed without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of understanding the conference offerings.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page clearly displays the TutorialFest section with clickable links, making it straightforward for Abi to understand that clicking will provide more information. This aligns with her comprehensive information processing style and preference for structured learning.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain if she has accessed all the necessary information.</t>
   </si>
 </sst>
 </file>
@@ -758,248 +753,248 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/aggregated_output/MYRTLE_aggregated.xlsx
+++ b/aggregated_output/MYRTLE_aggregated.xlsx
@@ -14,21 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to decide on attending the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This would help her gather the necessary details to make an informed decision.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the value of attending.</t>
   </si>
   <si>
     <t>Answer: YES
@@ -37,348 +27,368 @@
   </si>
   <si>
     <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured with clear headings and sections, making it intuitive for Abi to scroll down to find more information about POPL 2019. Her comprehensive information processing style supports her ability to navigate the page effectively to gather the necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of deciding whether to attend.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout is clear, with visible sections and headings that suggest scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, making it likely she will know to scroll down to find additional details about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details needed to decide about attending. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is long and detailed, which suggests that scrolling will reveal more information. Abi's comprehensive information processing style will guide her to scroll down to explore the full content of the program, helping her gather the necessary details about the conference presentations.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly assess if she has all the necessary details. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations
+Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to determine the value of attending.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the conference's relevance to her interests and work.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and other relevant sections. This provides her with a clear understanding of what is being presented at the conference, confirming she is making progress toward her goal. The information is organized and accessible, aligning with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized with visible sections like the schedule overview and keynotes. This layout encourages scrolling to gather more information, which aligns with Abi's comprehensive information processing style. She will know that scrolling is the right action to take to find out more about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling provides some information, Abi may not feel she has all the details needed to fully understand what is being presented. The page offers an overview, but she might require more specific information about the presentations, which isn't fully detailed here. Her low computer self-efficacy might also make her uncertain if she has gathered enough information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although Abi clicked the correct link, the page she lands on is overwhelming with a large amount of detailed information. This could make it difficult for her to process and find specific presentations of interest. Her low computer self-efficacy might also lead to uncertainty about whether she has effectively gathered the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains a long list of presentations, and scrolling is a natural action to view more content. Abi's comprehensive information processing style will guide her to scroll down to gather more details about the conference program.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling down is the correct action to view more content, the overwhelming amount of detailed information may make it difficult for Abi to determine if she has found all the relevant presentations. Her low computer self-efficacy might lead to uncertainty about whether she has effectively gathered the necessary information, making it hard for her to feel confident in her progress.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear instructions or labels indicating where the "distinguished paper" link is, Abi might struggle to know what to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists the distinguished papers, which directly aligns with Abi's goal of finding out what is being presented. The structured format and labels help her confirm she is making progress toward her goal, providing the specific information she needs about the conference presentations.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct link without clear guidance or instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style, allowing her to see she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for guided learning mean she might struggle to find the correct way to return to the main page to check the tutorial without explicit instructions or a visible navigation option.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The structured layout and visible sections help her confirm she is making progress toward her goal by providing the additional information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visible on the page, making it intuitive for Abi to click on one to explore further. This aligns with her motivation to find out more about the conference offerings and her comprehensive information processing style, guiding her to take this action confidently.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about whether she has all the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details are available below, which would motivate her to scroll down to gather the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, guiding her to click the link for more details.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume and complexity of the data might overwhelm her. This could make it difficult for her to process all the information effectively, leaving her uncertain about her progress toward the goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, as she is likely to scroll down to gather all necessary details about the conference program.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling provides access to more information, the extensive and detailed content may overwhelm Abi. This could make it difficult for her to determine if she has all the necessary information, leaving her uncertain about her progress toward the goal.</t>
+Why: The page does not provide clear navigation or instructions on how to return to the main page to check the tutorial. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to figure out how to navigate back without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her motivation to explore the program and her comprehensive information processing style, helping her feel confident she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visible on the page. Abi's motivation to explore the program and her comprehensive information processing style will guide her to click on a tutorial link to gather more information about the sessions.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has all the necessary information about the specific tutorials being offered, which could lead to uncertainty about her progress toward her goal. Her comprehensive information processing style and low computer self-efficacy might make her unsure if she has done the right thing.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to find more information is a logical step for her to take in order to gather the details she needs about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This aligns with her comprehensive information processing style, and she will recognize that she is making progress toward her goal by accessing this information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized with visible sections like the schedule overview and keynotes. Abi, with her comprehensive information processing style, will recognize that scrolling down is a logical step to gather more information about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not give Abi all the details she needs about the presentations. The page has a schedule overview and keynotes, but without more specific details or links to further information, Abi might not feel confident that she has gathered everything necessary to make an informed decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented at the conference. This aligns with her motivation to gather comprehensive information, and the page provides a clear path for her to follow.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume of information might be overwhelming. This could make it difficult for her to process and find specific details she needs, affecting her confidence in making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Abi is likely to scroll down to gather more information, as this aligns with her comprehensive information processing style. The page is long and detailed, so scrolling is a necessary action to view all the content and find specific presentations of interest.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling down allows Abi to see more of the program, the extensive amount of information might be overwhelming. This could make it difficult for her to determine if she has found all the relevant details she needs, affecting her confidence in making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low confidence in unfamiliar tasks and preference for clear instructions make this step challenging.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal of finding out what is being presented. The information is organized and labeled, helping her feel confident that she is making progress toward her goal.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Without clear guidance or labeling, she might struggle to identify the correct action to take, affecting her confidence and ability to proceed effectively.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their details. This aligns with her motivation to find specific presentations and her comprehensive information processing style, allowing her to see that she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation or instructions on how to return to the main page. Abi might struggle with this task due to her low confidence in unfamiliar tasks and preference for clear, guided instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Returning to the main page allows Abi to access additional information about the conference, such as tutorials. This aligns with her motivation to gather comprehensive details about the event, helping her feel she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her motivation to gather comprehensive information about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the details are insufficient.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down to gather more information aligns with Abi's comprehensive information processing style. The page provides a clear overview of the conference schedule, keynotes, and tutorials, which would help her understand what is being presented. This action is straightforward and does not require technical expertise, making it suitable for Abi.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This information is clearly laid out, allowing her to feel confident that she is making progress toward her goal. The page provides a comprehensive view, aligning with her information processing style.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. The presence of a schedule overview and other relevant sections indicates that scrolling will provide additional details about the conference, making it a logical action for her to take.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview but lacks specific details about each session or presentation. Abi might not feel she has made complete progress toward her goal due to her need for detailed information and her low confidence in navigating unfamiliar tasks.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. The page is straightforward, making it easy for her to know what to do at this step.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a detailed list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting this extensive list challenging, leaving her uncertain about her progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is long and detailed, indicating that more information is available below. Abi will likely understand that scrolling is necessary to view the full program and gather the details she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down provides more information, the extensive and detailed list may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify relevant sessions, and her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information. This could leave her unsure about her progress toward her goal.</t>
+Why: The page does not provide a clear or intuitive way to navigate back to the main page to check tutorials. Without explicit instructions or a visible navigation option, Abi might struggle to know how to return, affecting her confidence and ability to proceed effectively.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to find out what is being presented at the conference. The page is organized with visible sections, helping her recognize that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visible on the page, aligning with Abi's motivation to explore the conference content. The page provides a straightforward way for her to access more detailed information about the tutorials, supporting her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has gathered enough specific details about the tutorials themselves, which could hinder her confidence in making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page provides a clear overview of the conference schedule and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. She will likely know to scroll to find additional details about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the schedule overview and keynotes, which provide relevant information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to gather comprehensive information, making it likely she will know to click it.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might struggle with the volume of data, and her low computer self-efficacy could make it difficult for her to feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, so she will likely know to scroll to find additional details.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling provides more information, the sheer volume and complexity of the data may overwhelm Abi. Her comprehensive information processing style might not be sufficient to easily navigate and extract the needed details, and her low computer self-efficacy could hinder her confidence in making progress.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi which link corresponds to the "distinguished paper." Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions. The page does not provide enough context to make this action intuitive for her.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style. The page provides specific and relevant information, helping her feel confident that she is making progress toward her goal.</t>
+Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi may struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she might not feel confident in clicking without explicit instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly labels "Distinguished Paper," making it easy for Abi to see that she is viewing the right information. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy might make her hesitant to explore without explicit navigation options, and her preference for process-oriented learning means she might struggle without clear instructions. The page lacks guidance for this action.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly displayed. This aligns with her motivation to explore the program and her comprehensive information processing style. The main page provides a clear overview, helping her feel confident that she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled under "TutorialFest," making it easy for Abi to understand that clicking them will provide more information about the tutorials. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific information about the tutorials themselves. Her low computer self-efficacy might make her uncertain about where to find additional details, leaving her unsure if she is making progress toward her goal.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more information below, which is a common web design cue that Abi is likely familiar with. This action is intuitive and doesn't require technical expertise.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After scrolling, Abi will see the schedule overview and keynotes, which are relevant to her goal of finding out what is being presented. This confirms she is making progress toward her goal. The information is clearly laid out, helping her feel confident she is on the right track.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests there is more information below, which is a common web design cue. Abi's comprehensive information processing style means she is likely to scroll to gather more details. The page is structured in a way that encourages scrolling to find additional content.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling reveals some information, it may not provide all the details Abi needs to fully understand what is being presented at the conference. The page has a schedule overview and keynotes, but without more detailed descriptions or links to specific sessions, Abi might not feel she has all the necessary information. Her low computer self-efficacy might make her uncertain if she has found everything she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented. This aligns with her motivation to gather information and her comprehensive information processing style, making it likely she will know to click this link to proceed.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume of text and lack of clear organization might overwhelm her. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling is a natural action for Abi to take when faced with a long page of information. Her comprehensive information processing style means she is likely to scroll to gather more details. The page layout suggests there is more content below, which is a common web design cue.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the page is densely packed with text and lacks clear organization, which might overwhelm Abi. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy and preference for clear instructions may make it difficult for her to know how to proceed without explicit navigation options.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link. This aligns with her motivation to gather information and her comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and evaluation committee. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, given her need for comprehensive information and low confidence in navigating sparse details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page provides clear sections and headings, making it easy for her to understand that scrolling will reveal more details about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not give Abi a complete understanding of what is being presented at the conference. The page has a schedule overview and some keynotes, but it lacks detailed information about all presentations. Abi might not feel confident that she has all the necessary information to make a decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down is a natural action to discover more information on a webpage. The page layout suggests that more content is available below, which aligns with Abi's comprehensive information processing style. She will likely understand that scrolling will help her find additional details about the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling down provides some information, it may not give Abi a complete picture of all presentations at the conference. The page includes a schedule overview and keynotes, but lacks detailed descriptions of all sessions. Abi might not feel confident that she has gathered all necessary information to make an informed decision.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. She will likely understand that clicking this link is a logical step toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page provides a detailed program of the conference, listing sessions and presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. She will recognize that she is making progress toward her goal by accessing this detailed information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is long and contains a detailed list of sessions and presentations. Scrolling down is a natural action to view more content, and Abi's comprehensive information processing style will guide her to continue exploring the page for additional details.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the detailed list of sessions and presentations. This action aligns with her comprehensive information processing style, allowing her to gather all necessary information to make an informed decision about attending the conference. She will recognize that she is making progress toward her goal.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with text, and it may not be immediately clear which link corresponds to the "distinguished paper." Abi's low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal. The information is organized in a way that makes it easy for her to see the relevant details, confirming she is making progress toward her goal. This aligns with her motivation to gather specific information.</t>
+Why: The page is dense with information, and without clear instructions or labels indicating which links are for distinguished papers, Abi might struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident clicking without explicit guidance.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists distinguished papers, which aligns with Abi's goal of finding out what is being presented. The information is organized and labeled, helping her recognize that she is making progress toward her goal by accessing relevant details.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle without explicit navigation instructions or visible links to return to the main page.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to explore the program. The page clearly displays tutorial options, confirming she is making progress. This aligns with her motivation to gather comprehensive information about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi might not feel she has made significant progress toward her goal of understanding what is being presented. Her comprehensive information processing style requires more detailed content, and her low computer self-efficacy might lead to uncertainty about finding the necessary information.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more detailed information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more information about the conference.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style, ensuring she gets the information she needs.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The link labeled "Program of POPL 2019 and co-located events" clearly indicates that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning, making it clear that clicking the link is the right action to take.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style could make it difficult to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy might make her unsure if she is effectively navigating the page to find what she needs.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to discern what to focus on. Additionally, her low computer self-efficacy could lead to uncertainty about how to effectively navigate and extract the needed information from such a detailed page.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style might lead to confusion, and her low computer self-efficacy could cause uncertainty about whether she has found all the necessary information.</t>
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi might struggle to find the right action due to her low computer self-efficacy and preference for clear, guided steps. Without explicit navigation options, she may feel uncertain about how to proceed.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The page layout and content help her recognize that she is making progress toward gathering all necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The TutorialFest section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link. This aligns with her motivation to explore the program and her comprehensive information processing style, guiding her to take this action confidently.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as she lacks specific tutorial topics or descriptions. This could lead to uncertainty about whether she has gathered all necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with clear sections and headings, such as "Schedule Overview" and "Keynotes," which guide Abi to scroll down for more information. This aligns with her comprehensive information processing style, as she is likely to explore the page to gather all relevant details about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the "Schedule Overview" and "Keynotes," which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of understanding the conference content.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page layout includes clear sections and headings, such as "Schedule Overview" and "Keynotes," which indicate that more information is available by scrolling. This aligns with Abi's comprehensive information processing style, guiding her to scroll down to gather more details about the conference presentations.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The link labeled "Program of POPL 2019 and co-located events" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's comprehensive information processing style, as she is likely to click on it to gather more specific details about the conference content.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she has gathered all the necessary information, making it hard for her to feel confident in her progress.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured with a list format, which suggests that scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, as she is likely to scroll to gather all relevant details about the conference program. The page layout encourages exploration by scrolling.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify the specific details she needs. Additionally, her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information, making it hard for her to feel confident in her progress.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists the distinguished papers with their titles and times, which aligns with Abi's comprehensive information processing style. This clarity helps her know she is making progress toward her goal of understanding what is being presented at the conference.</t>
+Why: The page is dense with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly lists the distinguished papers with labels, making it easy for Abi to see that she is viewing the right content. This aligns with her comprehensive information processing style, as she can confirm she is making progress toward her goal of understanding what is being presented at the conference. The structured format helps her feel confident she has accessed the necessary information.</t>
   </si>
   <si>
     <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page to check tutorials. Abi's low computer self-efficacy and preference for process-oriented learning might make her unsure about how to proceed without explicit guidance.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her confirm she is making progress toward her goal of understanding the conference offerings.</t>
-  </si>
-  <si>
-    <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly displays the TutorialFest section with clickable links, making it straightforward for Abi to understand that clicking will provide more information. This aligns with her comprehensive information processing style and preference for structured learning.</t>
-  </si>
-  <si>
-    <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain if she has accessed all the necessary information.</t>
+Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to find the correct way to return to the main page without explicit instructions or a visible navigation option.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to access the "TutorialFest" section, which is clearly visible. This aligns with her comprehensive information processing style, as she can now explore additional content related to the conference. The structured layout helps her confirm she is making progress toward her goal of understanding the conference offerings.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her comprehensive information processing style, as she can easily navigate to gather more details about the tutorials offered at the conference.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style means she needs more specific content to feel she is making progress. Her low computer self-efficacy might also make her uncertain about whether she has accessed all necessary information.</t>
   </si>
 </sst>
 </file>
@@ -753,248 +763,248 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
